--- a/Helper_ExcelReader/Assets/Excel/Pokemon.xlsx
+++ b/Helper_ExcelReader/Assets/Excel/Pokemon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeLib\Unity_Helper_ExcelReader\Helper_ExcelReader\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003A4957-5FFF-4FDB-9C53-619990B67407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B00895E-019D-4E7E-8738-E7E5B59CB0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{EC46C200-DFF0-4ADB-821B-0865625DE0DA}"/>
+    <workbookView xWindow="1290" yWindow="3225" windowWidth="21600" windowHeight="11385" xr2:uid="{EC46C200-DFF0-4ADB-821B-0865625DE0DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Pokemon" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>皮卡丘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,54 @@
   </si>
   <si>
     <t>Cautious</t>
+  </si>
+  <si>
+    <t>otherParam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4;5;6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7;8;9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stringParam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a;b;c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>de;f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xyz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -511,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A708C18E-B766-472A-9D9C-31740ABADCD3}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -522,14 +570,15 @@
     <col min="3" max="3" width="30.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -548,8 +597,14 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -568,8 +623,14 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -588,8 +649,14 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -608,8 +675,14 @@
       <c r="F5">
         <v>60</v>
       </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -628,8 +701,14 @@
       <c r="F6">
         <v>50</v>
       </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -647,6 +726,12 @@
       </c>
       <c r="F7">
         <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Helper_ExcelReader/Assets/Excel/Pokemon.xlsx
+++ b/Helper_ExcelReader/Assets/Excel/Pokemon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeLib\Unity_Helper_ExcelReader\Helper_ExcelReader\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameLife\Projects\Unity\Unity_Helper_ExcelReader\Helper_ExcelReader\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B00895E-019D-4E7E-8738-E7E5B59CB0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F07C9C-DCC4-41CC-82D9-FE44225CF616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="3225" windowWidth="21600" windowHeight="11385" xr2:uid="{EC46C200-DFF0-4ADB-821B-0865625DE0DA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{EC46C200-DFF0-4ADB-821B-0865625DE0DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Pokemon" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xyz</t>
+    <t>xyz111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,20 +565,20 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -604,7 +604,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -630,7 +630,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -656,7 +656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -682,7 +682,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2</v>
       </c>
@@ -708,7 +708,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>3</v>
       </c>
